--- a/result/单源域迁移算法对比.xlsx
+++ b/result/单源域迁移算法对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBM_HX\DARNN-transfer\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FD736F-D997-40BD-9D88-7B070E8C9006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63E16C-2596-4C51-A6CE-FF2D15697AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -392,6 +392,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -720,42 +721,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="27"/>
+      <c r="N1" s="28"/>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
+      <c r="A2" s="28"/>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
@@ -794,7 +795,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3">
@@ -862,7 +863,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -898,7 +899,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -934,7 +935,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1000,7 +1001,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1036,7 +1037,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1094,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
@@ -1137,7 +1138,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1179,7 +1180,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1218,7 +1219,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1287,7 +1288,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -1326,7 +1327,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="32.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1380,7 +1381,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3">
@@ -1421,7 +1422,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -1460,7 +1461,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3">
         <v>3</v>
       </c>
@@ -1499,7 +1500,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3">
         <v>4</v>
       </c>
@@ -1538,7 +1539,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -1577,7 +1578,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="26"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1631,7 +1632,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="3">
@@ -1672,7 +1673,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -1711,7 +1712,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="3">
         <v>3</v>
       </c>
@@ -1747,7 +1748,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="26"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="3">
         <v>4</v>
       </c>
@@ -1783,7 +1784,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="26"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1819,7 +1820,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="26"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1919,42 +1920,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
     </row>
     <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
@@ -2035,7 +2036,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2124,7 +2125,7 @@
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +2212,7 @@
       <c r="AE4" s="1"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2300,7 +2301,7 @@
       <c r="AE5" s="1"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -2387,7 +2388,7 @@
       <c r="AE6" s="1"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2476,7 +2477,7 @@
       <c r="AE7" s="1"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2561,7 +2562,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2648,7 +2649,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2733,7 +2734,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2820,7 +2821,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
@@ -2905,7 +2906,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2953,7 +2954,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
@@ -3031,20 +3032,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="15" t="s">
         <v>24</v>
       </c>
@@ -3167,7 +3168,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3201,6 +3202,18 @@
       <c r="A3" t="s">
         <v>32</v>
       </c>
+      <c r="B3">
+        <v>5.4177246056497097E-3</v>
+      </c>
+      <c r="C3" s="26">
+        <v>2.13819716009311E-4</v>
+      </c>
+      <c r="D3">
+        <v>0.226401537656784</v>
+      </c>
+      <c r="E3">
+        <v>5.4574576206505299E-3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/result/单源域迁移算法对比.xlsx
+++ b/result/单源域迁移算法对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBM_HX\DARNN-transfer\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63E16C-2596-4C51-A6CE-FF2D15697AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49B0C18-7CF7-447C-B632-FD5AA6AD2774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1895,13 +1895,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1ED8FC-C8F4-43BF-84A3-E19E7562F660}">
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1919,7 +1919,7 @@
     <col min="25" max="25" width="9.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="Y1" s="27"/>
       <c r="Z1" s="27"/>
     </row>
-    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A3" s="28" t="s">
         <v>3</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="M3" s="4">
         <v>0.77960786223411505</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="7">
         <f t="shared" ref="N3:N12" si="1">AVERAGE(I3:M3)</f>
         <v>0.8081852644681925</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>0.83095882833003998</v>
       </c>
       <c r="V3" s="4">
-        <v>0.83143350481987</v>
+        <v>0.74917551875114397</v>
       </c>
       <c r="W3" s="4">
         <v>0.82675261795520705</v>
@@ -2112,19 +2112,16 @@
         <v>0.78478340804576796</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.83985452353954304</v>
-      </c>
-      <c r="Z3" s="7">
+        <v>0.82492436468601205</v>
+      </c>
+      <c r="Z3" s="6">
         <f t="shared" ref="Z3:Z12" si="3">AVERAGE(U3:Y3)</f>
-        <v>0.82275657653808554</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>8.0123165444219106E-3</v>
-      </c>
-      <c r="AB3" s="1"/>
-      <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
+        <v>0.80331894755363409</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="28"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
@@ -2163,7 +2160,7 @@
       <c r="M4" s="5">
         <v>0.131305381655693</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <f t="shared" si="1"/>
         <v>0.11201138347387281</v>
       </c>
@@ -2190,7 +2187,7 @@
         <v>0.101020067930221</v>
       </c>
       <c r="V4" s="5">
-        <v>9.9842026829719502E-2</v>
+        <v>0.165507271885871</v>
       </c>
       <c r="W4" s="5">
         <v>0.105225771665573</v>
@@ -2199,19 +2196,16 @@
         <v>0.14790673553943601</v>
       </c>
       <c r="Y4" s="5">
-        <v>9.3815878033638E-2</v>
-      </c>
-      <c r="Z4" s="8">
+        <v>0.106051638722419</v>
+      </c>
+      <c r="Z4" s="9">
         <f t="shared" si="3"/>
-        <v>0.10956209599971749</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>1.51337365775268</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+        <v>0.12514229714870401</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
@@ -2294,13 +2288,10 @@
         <f t="shared" si="3"/>
         <v>0.77214389443397502</v>
       </c>
-      <c r="AA5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1"/>
-      <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="AA5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="28"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
@@ -2381,13 +2372,10 @@
         <f t="shared" si="3"/>
         <v>0.13382178246974899</v>
       </c>
-      <c r="AA6" s="5">
-        <v>2.6366347044822001</v>
-      </c>
-      <c r="AB6" s="1"/>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="AA6" s="1"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="28" t="s">
         <v>1</v>
       </c>
@@ -2470,13 +2458,10 @@
         <f t="shared" si="3"/>
         <v>0.7768917620182032</v>
       </c>
-      <c r="AA7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1"/>
-      <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="AA7" s="1"/>
+      <c r="AD7" s="1"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="28"/>
       <c r="B8" s="5" t="s">
         <v>7</v>
@@ -2557,11 +2542,8 @@
         <f t="shared" si="3"/>
         <v>0.14725507944822278</v>
       </c>
-      <c r="AA8" s="5">
-        <v>0.61185712333791897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" s="28" t="s">
         <v>4</v>
       </c>
@@ -2644,11 +2626,8 @@
         <f t="shared" si="3"/>
         <v>0.75562401413917502</v>
       </c>
-      <c r="AA9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -2729,11 +2708,8 @@
         <f t="shared" si="3"/>
         <v>0.1347535431385036</v>
       </c>
-      <c r="AA10" s="5">
-        <v>0.68598681440533105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
         <v>2</v>
       </c>
@@ -2816,11 +2792,8 @@
         <f t="shared" si="3"/>
         <v>0.77285830378532383</v>
       </c>
-      <c r="AA11" s="6">
-        <v>0.13626913264180501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="28"/>
       <c r="B12" s="5" t="s">
         <v>7</v>
@@ -2901,11 +2874,8 @@
         <f t="shared" si="3"/>
         <v>0.12609065771102873</v>
       </c>
-      <c r="AA12" s="5">
-        <v>0.37328912895674699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="28" t="s">
         <v>13</v>
       </c>
@@ -2946,14 +2916,10 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4">
         <f>AVERAGE(Z3,Z5,Z7,Z9,Z11)</f>
-        <v>0.78005491018295259</v>
-      </c>
-      <c r="AA13" s="4">
-        <f>AVERAGE(AA3,AA5,AA7,AA9,AA11)</f>
-        <v>2.8856289837245384E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+        <v>0.77616738438606236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>7</v>
@@ -2992,29 +2958,26 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5">
         <f>AVERAGE(Z4,Z6,Z8,Z10,Z12)</f>
-        <v>0.13029663175344433</v>
-      </c>
-      <c r="AA14" s="5">
-        <f>AVERAGE(AA4,AA6,AA8,AA10,AA12)</f>
-        <v>1.1642282857869755</v>
+        <v>0.13341267198324164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3167,7 +3130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2D95CE-8F8C-4208-8268-B659B0C76A48}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/result/单源域迁移算法对比.xlsx
+++ b/result/单源域迁移算法对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBM_HX\DARNN-transfer\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49B0C18-7CF7-447C-B632-FD5AA6AD2774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF0845D-AA3E-454C-AA69-276F6D2C20CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1898,10 +1898,10 @@
   <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2963,17 +2963,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/单源域迁移算法对比.xlsx
+++ b/result/单源域迁移算法对比.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBM_HX\DARNN-transfer\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF0845D-AA3E-454C-AA69-276F6D2C20CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE217DC0-F648-4EDD-ACFC-3FABEFA151C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="改进后的模型" sheetId="2" r:id="rId2"/>
+    <sheet name="FS-DANN" sheetId="2" r:id="rId2"/>
     <sheet name="模型直接泛化能力" sheetId="3" r:id="rId3"/>
     <sheet name="聚簇分析" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>方法\指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,14 +100,6 @@
   </si>
   <si>
     <t>DA-LSTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略五：DANN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改进DANN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -190,6 +182,17 @@
   <si>
     <t>KL LOSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进DANN（已废弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略五：DANN（已废弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS-DANN</t>
   </si>
 </sst>
 </file>
@@ -315,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -409,6 +412,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1895,28 +1902,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1ED8FC-C8F4-43BF-84A3-E19E7562F660}">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.06640625" customWidth="1"/>
     <col min="2" max="2" width="14.06640625" customWidth="1"/>
-    <col min="3" max="7" width="9.06640625" customWidth="1"/>
+    <col min="3" max="7" width="9.06640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="20.59765625" customWidth="1"/>
-    <col min="9" max="13" width="9.06640625" customWidth="1"/>
+    <col min="9" max="13" width="9.06640625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12.53125" customWidth="1"/>
-    <col min="15" max="19" width="9.06640625" customWidth="1"/>
-    <col min="20" max="20" width="21.9296875" customWidth="1"/>
-    <col min="21" max="23" width="9.06640625" customWidth="1"/>
-    <col min="24" max="24" width="6.19921875" customWidth="1"/>
-    <col min="25" max="25" width="9.46484375" customWidth="1"/>
+    <col min="15" max="19" width="9.06640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="21.9296875" hidden="1" customWidth="1"/>
+    <col min="21" max="23" width="9.06640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="6.19921875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.46484375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.4">
@@ -1933,7 +1940,7 @@
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
       <c r="I1" s="27" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
@@ -1949,13 +1956,16 @@
       <c r="S1" s="27"/>
       <c r="T1" s="27"/>
       <c r="U1" s="27" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="V1" s="27"/>
       <c r="W1" s="27"/>
       <c r="X1" s="27"/>
       <c r="Y1" s="27"/>
       <c r="Z1" s="27"/>
+      <c r="AA1" s="33" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
@@ -2076,7 +2086,7 @@
       <c r="M3" s="4">
         <v>0.77960786223411505</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <f t="shared" ref="N3:N12" si="1">AVERAGE(I3:M3)</f>
         <v>0.8081852644681925</v>
       </c>
@@ -2118,8 +2128,12 @@
         <f t="shared" ref="Z3:Z12" si="3">AVERAGE(U3:Y3)</f>
         <v>0.80331894755363409</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AD3" s="1"/>
+      <c r="AA3" s="20">
+        <v>0.86463844776153498</v>
+      </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="28"/>
@@ -2160,7 +2174,7 @@
       <c r="M4" s="5">
         <v>0.131305381655693</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="9">
         <f t="shared" si="1"/>
         <v>0.11201138347387281</v>
       </c>
@@ -2202,8 +2216,12 @@
         <f t="shared" si="3"/>
         <v>0.12514229714870401</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="AA4" s="34">
+        <v>8.2795858383178697E-2</v>
+      </c>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" s="28" t="s">
@@ -2246,7 +2264,7 @@
       <c r="M5" s="4">
         <v>0.78496521711349398</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <f t="shared" si="1"/>
         <v>0.79840075373649533</v>
       </c>
@@ -2288,8 +2306,12 @@
         <f t="shared" si="3"/>
         <v>0.77214389443397502</v>
       </c>
-      <c r="AA5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="AA5" s="20">
+        <v>0.83924721181392603</v>
+      </c>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="28"/>
@@ -2330,7 +2352,7 @@
       <c r="M6" s="5">
         <v>0.126244202256202</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="9">
         <f t="shared" si="1"/>
         <v>0.11992008388042381</v>
       </c>
@@ -2372,8 +2394,12 @@
         <f t="shared" si="3"/>
         <v>0.13382178246974899</v>
       </c>
-      <c r="AA6" s="1"/>
-      <c r="AD6" s="1"/>
+      <c r="AA6" s="34">
+        <v>9.5896124839782701E-2</v>
+      </c>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="28" t="s">
@@ -2416,7 +2442,7 @@
       <c r="M7" s="4">
         <v>0.83617192506790095</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f t="shared" si="1"/>
         <v>0.85562597960233622</v>
       </c>
@@ -2458,8 +2484,12 @@
         <f t="shared" si="3"/>
         <v>0.7768917620182032</v>
       </c>
-      <c r="AA7" s="1"/>
-      <c r="AD7" s="1"/>
+      <c r="AA7" s="20">
+        <v>0.95125894248485499</v>
+      </c>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="28"/>
@@ -2500,7 +2530,7 @@
       <c r="M8" s="5">
         <v>0.111189775168895</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="9">
         <f t="shared" si="1"/>
         <v>0.1011327147483824</v>
       </c>
@@ -2542,6 +2572,12 @@
         <f t="shared" si="3"/>
         <v>0.14725507944822278</v>
       </c>
+      <c r="AA8" s="34">
+        <v>3.4540437161922399E-2</v>
+      </c>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" s="28" t="s">
@@ -2584,7 +2620,7 @@
       <c r="M9" s="4">
         <v>0.80135330557823103</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <f t="shared" si="1"/>
         <v>0.82269455790519663</v>
       </c>
@@ -2626,6 +2662,12 @@
         <f t="shared" si="3"/>
         <v>0.75562401413917502</v>
       </c>
+      <c r="AA9" s="20">
+        <v>0.88121253997087401</v>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="28"/>
@@ -2666,7 +2708,7 @@
       <c r="M10" s="5">
         <v>0.11345387250185</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="9">
         <f t="shared" si="1"/>
         <v>0.10219940394163123</v>
       </c>
@@ -2708,6 +2750,12 @@
         <f t="shared" si="3"/>
         <v>0.1347535431385036</v>
       </c>
+      <c r="AA10" s="34">
+        <v>7.4802897870540605E-2</v>
+      </c>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
@@ -2750,7 +2798,7 @@
       <c r="M11" s="4">
         <v>0.75448109209537495</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <f t="shared" si="1"/>
         <v>0.80234082937240581</v>
       </c>
@@ -2792,6 +2840,12 @@
         <f t="shared" si="3"/>
         <v>0.77285830378532383</v>
       </c>
+      <c r="AA11" s="20">
+        <v>0.89041186124086302</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="28"/>
@@ -2832,7 +2886,7 @@
       <c r="M12" s="5">
         <v>0.12612119317054701</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="9">
         <f t="shared" si="1"/>
         <v>0.10335587263107264</v>
       </c>
@@ -2874,6 +2928,12 @@
         <f t="shared" si="3"/>
         <v>0.12609065771102873</v>
       </c>
+      <c r="AA12" s="34">
+        <v>5.9486769139766603E-2</v>
+      </c>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="28" t="s">
@@ -2896,7 +2956,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <f>AVERAGE(N3,N5,N7,N9,N11)</f>
         <v>0.81744947701692516</v>
       </c>
@@ -2918,6 +2978,13 @@
         <f>AVERAGE(Z3,Z5,Z7,Z9,Z11)</f>
         <v>0.77616738438606236</v>
       </c>
+      <c r="AA13" s="4">
+        <f>AVERAGE(AA3,AA5,AA7,AA9,AA11)</f>
+        <v>0.88535380065441061</v>
+      </c>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="28"/>
@@ -2938,7 +3005,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="8">
+      <c r="N14" s="9">
         <f>AVERAGE(N4,N6,N8,N10,N12)</f>
         <v>0.10772389173507657</v>
       </c>
@@ -2960,6 +3027,50 @@
         <f>AVERAGE(Z4,Z6,Z8,Z10,Z12)</f>
         <v>0.13341267198324164</v>
       </c>
+      <c r="AA14" s="5">
+        <f>AVERAGE(AA4,AA6,AA8,AA10,AA12)</f>
+        <v>6.9504417479038197E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="27:28" x14ac:dyDescent="0.4">
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" spans="27:28" x14ac:dyDescent="0.4">
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="27:28" x14ac:dyDescent="0.4">
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="27:28" x14ac:dyDescent="0.4">
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="27:28" x14ac:dyDescent="0.4">
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="27:28" x14ac:dyDescent="0.4">
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+    </row>
+    <row r="23" spans="27:28" x14ac:dyDescent="0.4">
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="27:28" x14ac:dyDescent="0.4">
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="27:28" x14ac:dyDescent="0.4">
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+    </row>
+    <row r="26" spans="27:28" x14ac:dyDescent="0.4">
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2996,35 +3107,35 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="30"/>
       <c r="B2" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="16">
         <v>6.8000000000000005E-2</v>
@@ -3041,7 +3152,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="18">
         <v>0.04</v>
@@ -3058,7 +3169,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="18">
         <v>0.06</v>
@@ -3075,7 +3186,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="18">
         <v>4.3999999999999997E-2</v>
@@ -3092,7 +3203,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="21">
         <v>2.9000000000000001E-2</v>
@@ -3138,32 +3249,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>5.4177246056497097E-3</v>

--- a/result/单源域迁移算法对比.xlsx
+++ b/result/单源域迁移算法对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBM_HX\DARNN-transfer\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE217DC0-F648-4EDD-ACFC-3FABEFA151C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4C8714-F47C-4D80-A4CD-6AF9B429CE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1908,7 +1908,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB5" sqref="AB5"/>
+      <selection pane="bottomRight" activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
